--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW40.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha1F-HW40.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -964,7 +964,7 @@
         <v>0.9949477028747656</v>
       </c>
       <c r="H13">
-        <v>0.9942016177834839</v>
+        <v>0.9942016177834837</v>
       </c>
       <c r="I13">
         <v>0.9946708432414045</v>
@@ -979,7 +979,7 @@
         <v>0.9946490387031186</v>
       </c>
       <c r="M13">
-        <v>0.9946032050808582</v>
+        <v>0.9946032050808581</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9942283990324036</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9842483788308727</v>
+      </c>
+      <c r="D16">
+        <v>1.021358771308097</v>
+      </c>
+      <c r="E16">
+        <v>0.9860784505992501</v>
+      </c>
+      <c r="F16">
+        <v>0.9842483788308727</v>
+      </c>
+      <c r="G16">
+        <v>1.01029065399248</v>
+      </c>
+      <c r="H16">
+        <v>0.9735217150096211</v>
+      </c>
+      <c r="I16">
+        <v>0.9831372741286619</v>
+      </c>
+      <c r="J16">
+        <v>1.021358771308097</v>
+      </c>
+      <c r="K16">
+        <v>1.003718610953674</v>
+      </c>
+      <c r="L16">
+        <v>0.993983494892273</v>
+      </c>
+      <c r="M16">
+        <v>0.9931058739781639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9842483788308727</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW40.xlsx
@@ -967,7 +967,7 @@
         <v>0.9949477028747656</v>
       </c>
       <c r="H13">
-        <v>0.9942016177834837</v>
+        <v>0.9942016177834839</v>
       </c>
       <c r="I13">
         <v>0.9946708432414045</v>
@@ -982,7 +982,7 @@
         <v>0.9946490387031186</v>
       </c>
       <c r="M13">
-        <v>0.9946032050808581</v>
+        <v>0.9946032050808582</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9750000000000002</v>
+        <v>0.9842483788308727</v>
       </c>
       <c r="D10">
-        <v>1.059372</v>
+        <v>1.021358771308097</v>
       </c>
       <c r="E10">
-        <v>0.9745839999999993</v>
+        <v>0.9860784505992501</v>
       </c>
       <c r="F10">
-        <v>0.9750000000000002</v>
+        <v>0.9842483788308727</v>
       </c>
       <c r="G10">
-        <v>1.031044</v>
+        <v>1.01029065399248</v>
       </c>
       <c r="H10">
-        <v>0.9383199999999999</v>
+        <v>0.9735217150096211</v>
       </c>
       <c r="I10">
-        <v>0.9745840000000002</v>
+        <v>0.9831372741286619</v>
       </c>
       <c r="J10">
-        <v>1.059372</v>
+        <v>1.021358771308097</v>
       </c>
       <c r="K10">
-        <v>1.016978</v>
+        <v>1.003718610953674</v>
       </c>
       <c r="L10">
-        <v>0.9959889999999999</v>
+        <v>0.993983494892273</v>
       </c>
       <c r="M10">
-        <v>0.9921506666666665</v>
+        <v>0.9931058739781639</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.96</v>
+        <v>0.9992114341895088</v>
       </c>
       <c r="D11">
-        <v>1.11</v>
+        <v>0.9718420115976726</v>
       </c>
       <c r="E11">
-        <v>0.96</v>
+        <v>1.000089702461063</v>
       </c>
       <c r="F11">
-        <v>0.96</v>
+        <v>0.9992114341895088</v>
       </c>
       <c r="G11">
-        <v>1.061250000000001</v>
+        <v>0.980062931742587</v>
       </c>
       <c r="H11">
-        <v>0.89</v>
+        <v>1.013465366313336</v>
       </c>
       <c r="I11">
-        <v>0.96</v>
+        <v>0.9989068172540068</v>
       </c>
       <c r="J11">
-        <v>1.11</v>
+        <v>0.9718420115976726</v>
       </c>
       <c r="K11">
-        <v>1.035</v>
+        <v>0.9859658570293679</v>
       </c>
       <c r="L11">
-        <v>0.9975000000000001</v>
+        <v>0.9925886456094383</v>
       </c>
       <c r="M11">
-        <v>0.9902083333333335</v>
+        <v>0.9939297105930289</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9748132051968023</v>
+        <v>0.9991983676213081</v>
       </c>
       <c r="D12">
-        <v>1.062359936819193</v>
+        <v>0.9719958760791825</v>
       </c>
       <c r="E12">
-        <v>0.9744879730687999</v>
+        <v>1.000051165419836</v>
       </c>
       <c r="F12">
-        <v>0.9748132051968023</v>
+        <v>0.9991983676213081</v>
       </c>
       <c r="G12">
-        <v>1.033198513663996</v>
+        <v>0.9801654765517988</v>
       </c>
       <c r="H12">
-        <v>0.9349155694592045</v>
+        <v>1.013398184189675</v>
       </c>
       <c r="I12">
-        <v>0.9747430590464036</v>
+        <v>0.9988718232249534</v>
       </c>
       <c r="J12">
-        <v>1.062359936819193</v>
+        <v>0.9719958760791825</v>
       </c>
       <c r="K12">
-        <v>1.018423954943997</v>
+        <v>0.9860235207495091</v>
       </c>
       <c r="L12">
-        <v>0.9966185800703994</v>
+        <v>0.9926109441854085</v>
       </c>
       <c r="M12">
-        <v>0.9924197095423999</v>
+        <v>0.9939468155144588</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.99479708822698</v>
+        <v>0.9992235183805473</v>
       </c>
       <c r="D13">
-        <v>0.9945805313864726</v>
+        <v>0.9719135306014605</v>
       </c>
       <c r="E13">
-        <v>0.9944214469720416</v>
+        <v>1.00006959388233</v>
       </c>
       <c r="F13">
-        <v>0.99479708822698</v>
+        <v>0.9992235183805473</v>
       </c>
       <c r="G13">
-        <v>0.9949477028747656</v>
+        <v>0.9801048495546446</v>
       </c>
       <c r="H13">
-        <v>0.9942016177834839</v>
+        <v>1.013481658129584</v>
       </c>
       <c r="I13">
-        <v>0.9946708432414045</v>
+        <v>0.9988940463938802</v>
       </c>
       <c r="J13">
-        <v>0.9945805313864726</v>
+        <v>0.9719135306014605</v>
       </c>
       <c r="K13">
-        <v>0.9945009891792571</v>
+        <v>0.9859915622418953</v>
       </c>
       <c r="L13">
-        <v>0.9946490387031186</v>
+        <v>0.9926075403112213</v>
       </c>
       <c r="M13">
-        <v>0.9946032050808582</v>
+        <v>0.9939478661570744</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9956095208745412</v>
+        <v>0.9750000000000002</v>
       </c>
       <c r="D14">
-        <v>0.9895800295334213</v>
+        <v>1.059372</v>
       </c>
       <c r="E14">
-        <v>0.9946006024546515</v>
+        <v>0.9745839999999993</v>
       </c>
       <c r="F14">
-        <v>0.9956095208745412</v>
+        <v>0.9750000000000002</v>
       </c>
       <c r="G14">
-        <v>0.9915404380170352</v>
+        <v>1.031044</v>
       </c>
       <c r="H14">
-        <v>0.9960858699776257</v>
+        <v>0.9383199999999999</v>
       </c>
       <c r="I14">
-        <v>0.9947088487688238</v>
+        <v>0.9745840000000002</v>
       </c>
       <c r="J14">
-        <v>0.9895800295334213</v>
+        <v>1.059372</v>
       </c>
       <c r="K14">
-        <v>0.9920903159940364</v>
+        <v>1.016978</v>
       </c>
       <c r="L14">
-        <v>0.9938499184342888</v>
+        <v>0.9959889999999999</v>
       </c>
       <c r="M14">
-        <v>0.9936875516043499</v>
+        <v>0.9921506666666665</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9978601197461112</v>
+        <v>0.96</v>
       </c>
       <c r="D15">
-        <v>0.9814681602980121</v>
+        <v>1.11</v>
       </c>
       <c r="E15">
-        <v>0.9975773319353027</v>
+        <v>0.96</v>
       </c>
       <c r="F15">
-        <v>0.9978601197461112</v>
+        <v>0.96</v>
       </c>
       <c r="G15">
-        <v>0.9868877929607551</v>
+        <v>1.061250000000001</v>
       </c>
       <c r="H15">
-        <v>1.003620805669126</v>
+        <v>0.89</v>
       </c>
       <c r="I15">
-        <v>0.9979561835851133</v>
+        <v>0.96</v>
       </c>
       <c r="J15">
-        <v>0.9814681602980121</v>
+        <v>1.11</v>
       </c>
       <c r="K15">
-        <v>0.9895227461166574</v>
+        <v>1.035</v>
       </c>
       <c r="L15">
-        <v>0.9936914329313842</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="M15">
-        <v>0.9942283990324036</v>
+        <v>0.9902083333333335</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9842483788308727</v>
+        <v>0.9748132051968023</v>
       </c>
       <c r="D16">
-        <v>1.021358771308097</v>
+        <v>1.062359936819193</v>
       </c>
       <c r="E16">
-        <v>0.9860784505992501</v>
+        <v>0.9744879730687999</v>
       </c>
       <c r="F16">
-        <v>0.9842483788308727</v>
+        <v>0.9748132051968023</v>
       </c>
       <c r="G16">
-        <v>1.01029065399248</v>
+        <v>1.033198513663996</v>
       </c>
       <c r="H16">
-        <v>0.9735217150096211</v>
+        <v>0.9349155694592045</v>
       </c>
       <c r="I16">
-        <v>0.9831372741286619</v>
+        <v>0.9747430590464036</v>
       </c>
       <c r="J16">
-        <v>1.021358771308097</v>
+        <v>1.062359936819193</v>
       </c>
       <c r="K16">
-        <v>1.003718610953674</v>
+        <v>1.018423954943997</v>
       </c>
       <c r="L16">
-        <v>0.993983494892273</v>
+        <v>0.9966185800703994</v>
       </c>
       <c r="M16">
-        <v>0.9931058739781639</v>
+        <v>0.9924197095423999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.99479708822698</v>
+      </c>
+      <c r="D17">
+        <v>0.9945805313864726</v>
+      </c>
+      <c r="E17">
+        <v>0.9944214469720416</v>
+      </c>
+      <c r="F17">
+        <v>0.99479708822698</v>
+      </c>
+      <c r="G17">
+        <v>0.9949477028747656</v>
+      </c>
+      <c r="H17">
+        <v>0.9942016177834837</v>
+      </c>
+      <c r="I17">
+        <v>0.9946708432414045</v>
+      </c>
+      <c r="J17">
+        <v>0.9945805313864726</v>
+      </c>
+      <c r="K17">
+        <v>0.9945009891792571</v>
+      </c>
+      <c r="L17">
+        <v>0.9946490387031186</v>
+      </c>
+      <c r="M17">
+        <v>0.9946032050808581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9956095208745412</v>
+      </c>
+      <c r="D18">
+        <v>0.9895800295334213</v>
+      </c>
+      <c r="E18">
+        <v>0.9946006024546515</v>
+      </c>
+      <c r="F18">
+        <v>0.9956095208745412</v>
+      </c>
+      <c r="G18">
+        <v>0.9915404380170352</v>
+      </c>
+      <c r="H18">
+        <v>0.9960858699776257</v>
+      </c>
+      <c r="I18">
+        <v>0.9947088487688238</v>
+      </c>
+      <c r="J18">
+        <v>0.9895800295334213</v>
+      </c>
+      <c r="K18">
+        <v>0.9920903159940364</v>
+      </c>
+      <c r="L18">
+        <v>0.9938499184342888</v>
+      </c>
+      <c r="M18">
+        <v>0.9936875516043499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9978601197461112</v>
+      </c>
+      <c r="D19">
+        <v>0.9814681602980121</v>
+      </c>
+      <c r="E19">
+        <v>0.9975773319353027</v>
+      </c>
+      <c r="F19">
+        <v>0.9978601197461112</v>
+      </c>
+      <c r="G19">
+        <v>0.9868877929607551</v>
+      </c>
+      <c r="H19">
+        <v>1.003620805669126</v>
+      </c>
+      <c r="I19">
+        <v>0.9979561835851133</v>
+      </c>
+      <c r="J19">
+        <v>0.9814681602980121</v>
+      </c>
+      <c r="K19">
+        <v>0.9895227461166574</v>
+      </c>
+      <c r="L19">
+        <v>0.9936914329313842</v>
+      </c>
+      <c r="M19">
+        <v>0.9942283990324036</v>
       </c>
     </row>
   </sheetData>
